--- a/Test Data/TC_54170_Verify_Shopping_List_When_User_Add_TLI800_TLI800EN_To_Network_Card.xlsx
+++ b/Test Data/TC_54170_Verify_Shopping_List_When_User_Add_TLI800_TLI800EN_To_Network_Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB3F54A-E171-4392-8317-0C63F2F8D449}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B22D96C-A8CD-4FAE-B3AC-1B2CF9F00A12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>Color Codes</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>To Verify Shopping List On Adding TLI800 And TLI800EN</t>
+  </si>
+  <si>
+    <t>Second Panel Node</t>
+  </si>
+  <si>
+    <t>Node2</t>
   </si>
 </sst>
 </file>
@@ -643,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,7 +671,7 @@
     <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -673,7 +679,7 @@
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
     </row>
-    <row r="2" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -685,7 +691,7 @@
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -697,7 +703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -715,13 +721,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
@@ -767,8 +773,11 @@
       <c r="O7" s="19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -813,6 +822,9 @@
       </c>
       <c r="O8" s="5" t="s">
         <v>48</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
